--- a/项目进度文档/sprint_1.xlsx
+++ b/项目进度文档/sprint_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dffbd3ff52143503/文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tank_fire\tank_fire\项目进度文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{02DF2429-809C-4EB0-9B96-819F7E3ED9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2E8ADC3-9CA9-4DCB-8AE6-726712C11D0B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161E2C3D-FAF8-43FA-AD7C-D25408897705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{19FFAF11-D350-4D9E-9DD3-2EACFAFC9234}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{19FFAF11-D350-4D9E-9DD3-2EACFAFC9234}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -172,6 +172,29 @@
   </si>
   <si>
     <t>出生点设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟</t>
+  </si>
+  <si>
+    <t>延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方ai设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,22 +437,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -480,16 +509,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,10 +584,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,648 +883,754 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE99CCB-5AEC-4041-89A7-2642DD8EF225}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:K22"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="40" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="25" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="25" t="s">
+      <c r="M1" s="30"/>
+      <c r="N1" s="27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="27"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="27"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="28"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="32"/>
       <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="O4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="13">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="15">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="9">
         <v>5</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="2">
+        <v>8</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="4" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="4">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="9">
         <v>3</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="1">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="13">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="15">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="4">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="9">
         <v>10</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="O7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="4" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="4">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="9">
         <v>10</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="4" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="4">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="9">
         <v>10</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="4" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="4">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="9">
         <v>10</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="O10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="4" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="4">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="9">
         <v>5</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="O11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="13">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="15">
         <v>9</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="4">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="9">
         <v>10</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="O12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="4" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="4">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="9">
         <v>6</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="11"/>
       <c r="N13" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="4" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="4">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="9">
         <v>10</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="O14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="9">
         <v>25</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="13">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="15">
         <v>6</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="4">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="9">
         <v>5</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="9">
         <v>26</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="4" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="4">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="9">
         <v>4</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="9">
         <v>27</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="4" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="4">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="9">
         <v>3</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="9">
         <v>28</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="4" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="4">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="9">
         <v>3</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="9">
         <v>33</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="3">
         <v>7</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="4">
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="9">
         <v>8</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="9">
         <v>36</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="13">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="15">
         <v>8</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="4">
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="9">
         <v>10</v>
       </c>
-      <c r="M20" s="5"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="O20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="9">
         <v>37</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="4" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="4">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="9">
         <v>10</v>
       </c>
-      <c r="M21" s="5"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+      <c r="O21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="9">
         <v>38</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="4" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="4">
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="9">
         <v>7</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="O22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="9">
         <v>39</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="4" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="4">
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="9">
         <v>10</v>
       </c>
-      <c r="M23" s="5"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+      <c r="O23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="9">
         <v>40</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="4" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="4">
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="9">
         <v>7</v>
       </c>
-      <c r="M24" s="5"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+      <c r="O24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="9">
         <v>42</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="13">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="15">
         <v>3</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="4">
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="9">
         <v>4</v>
       </c>
-      <c r="M25" s="5"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="O25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="9">
         <v>43</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="4" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="4">
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="9">
         <v>4</v>
       </c>
-      <c r="M26" s="5"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="1">
         <v>2</v>
       </c>
+      <c r="O26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="4">
+        <v>9</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="6">
+        <v>9</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="5">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="N28">
+        <f>SUM(N5:N27)</f>
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="89">
+    <mergeCell ref="O1:O4"/>
     <mergeCell ref="N1:N4"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:F4"/>
@@ -1577,6 +1708,9 @@
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:K27"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>

--- a/项目进度文档/sprint_1.xlsx
+++ b/项目进度文档/sprint_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tank_fire\tank_fire\项目进度文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161E2C3D-FAF8-43FA-AD7C-D25408897705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F146922-6DE0-43F0-9ABE-E4F7E982B54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{19FFAF11-D350-4D9E-9DD3-2EACFAFC9234}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,34 +111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>游戏体验反馈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏过关逻辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏奖励反馈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏关卡获取逻辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前游戏状态的储存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏墙壁设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>各类逻辑设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家交互</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -151,10 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩家道具交互判断</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家鼠标指向</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,13 +144,6 @@
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>延迟</t>
-  </si>
-  <si>
-    <t>延迟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -434,9 +395,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,6 +525,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -883,753 +844,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE99CCB-5AEC-4041-89A7-2642DD8EF225}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="42" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="27" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="27" t="s">
+      <c r="M1" s="29"/>
+      <c r="N1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="27" t="s">
-        <v>40</v>
+      <c r="O1" s="26" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="28"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="28"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="15">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="14">
         <v>2</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="9">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="8">
         <v>5</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="10"/>
       <c r="N5" s="2">
         <v>8</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="9" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="9">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="8">
         <v>3</v>
       </c>
-      <c r="M6" s="11"/>
+      <c r="M6" s="10"/>
       <c r="N6" s="1">
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="15">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="14">
         <v>10</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="9">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="8">
         <v>10</v>
       </c>
-      <c r="M7" s="11"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="1">
         <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="9" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="9">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="8">
         <v>10</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="1">
         <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="9" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="9">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="8">
         <v>10</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="1">
         <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="9" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="9">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="8">
         <v>10</v>
       </c>
-      <c r="M10" s="11"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="1">
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="9" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="9">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="8">
         <v>5</v>
       </c>
-      <c r="M11" s="11"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="1">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="15">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="14">
         <v>9</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="9">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="8">
         <v>10</v>
       </c>
-      <c r="M12" s="11"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="1">
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="9" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="9">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="8">
         <v>6</v>
       </c>
-      <c r="M13" s="11"/>
+      <c r="M13" s="10"/>
       <c r="N13" s="1">
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="9" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="9">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="8">
         <v>10</v>
       </c>
-      <c r="M14" s="11"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="1">
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="14">
+        <v>8</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="8">
+        <v>10</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="1">
+        <v>6</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="8">
+        <v>37</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="8">
+        <v>10</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="1">
+        <v>6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="8">
+        <v>39</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="8">
+        <v>10</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="1">
+        <v>6</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="8">
+        <v>40</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="8">
+        <v>7</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1">
+        <v>6</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="8">
+        <v>42</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="14">
+        <v>3</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="15">
-        <v>6</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="9">
-        <v>5</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="9">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="8">
+        <v>4</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="1">
+        <v>8</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="8">
+        <v>43</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="9">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="8">
         <v>4</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="9">
-        <v>27</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="9">
-        <v>3</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="9">
+      <c r="M20" s="10"/>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="9">
-        <v>3</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="9">
-        <v>33</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="3">
-        <v>7</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="9">
-        <v>8</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="9">
-        <v>36</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="15">
-        <v>8</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="9">
-        <v>10</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="1">
-        <v>6</v>
-      </c>
-      <c r="O20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="9">
-        <v>37</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="9">
-        <v>10</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="1">
-        <v>6</v>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="3">
+        <v>9</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="5">
+        <v>9</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="4">
+        <v>12</v>
       </c>
       <c r="O21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="9">
-        <v>38</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="9">
-        <v>7</v>
-      </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="1">
-        <v>6</v>
-      </c>
-      <c r="O22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="9">
-        <v>39</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="9">
-        <v>10</v>
-      </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="1">
-        <v>6</v>
-      </c>
-      <c r="O23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="9">
-        <v>40</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="9">
-        <v>7</v>
-      </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="1">
-        <v>6</v>
-      </c>
-      <c r="O24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="9">
-        <v>42</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="15">
-        <v>3</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="9">
-        <v>4</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="1">
-        <v>4</v>
-      </c>
-      <c r="O25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="9">
-        <v>43</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="9">
-        <v>4</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="1">
-        <v>2</v>
-      </c>
-      <c r="O26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="4">
-        <v>9</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="6">
-        <v>9</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="5">
-        <v>12</v>
-      </c>
-      <c r="O27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="N28">
-        <f>SUM(N5:N27)</f>
-        <v>108</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="N22">
+        <f>SUM(N5:N21)</f>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="68">
     <mergeCell ref="O1:O4"/>
     <mergeCell ref="N1:N4"/>
     <mergeCell ref="A1:B4"/>
@@ -1662,6 +1453,7 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
@@ -1673,52 +1465,30 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C15:F18"/>
+    <mergeCell ref="G15:G18"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:M15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C20:F24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:M25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度文档/sprint_1.xlsx
+++ b/项目进度文档/sprint_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tank_fire\tank_fire\项目进度文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F146922-6DE0-43F0-9ABE-E4F7E982B54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675A3EA0-EFC1-4E62-B223-A11C15E1A42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{19FFAF11-D350-4D9E-9DD3-2EACFAFC9234}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>完成情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额完成进度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,49 +405,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -464,70 +492,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -847,117 +848,117 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="H9" sqref="H9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="41" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="26" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="26" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="27"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8">
+      <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="14">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="34">
         <v>2</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="8">
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="26">
         <v>5</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="M5" s="27"/>
       <c r="N5" s="2">
         <v>8</v>
       </c>
@@ -966,25 +967,25 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8">
+      <c r="A6" s="26">
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="8" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="8">
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="26">
         <v>3</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="1">
         <v>6</v>
       </c>
@@ -993,29 +994,29 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="8">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="14">
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="34">
         <v>10</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="8">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="26">
         <v>10</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="27"/>
       <c r="N7" s="1">
         <v>8</v>
       </c>
@@ -1024,25 +1025,25 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8">
+      <c r="A8" s="26">
         <v>4</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="8" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="8">
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="26">
         <v>10</v>
       </c>
-      <c r="M8" s="10"/>
+      <c r="M8" s="27"/>
       <c r="N8" s="1">
         <v>8</v>
       </c>
@@ -1051,25 +1052,25 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8">
+      <c r="A9" s="26">
         <v>5</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="8" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="8">
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="26">
         <v>10</v>
       </c>
-      <c r="M9" s="10"/>
+      <c r="M9" s="27"/>
       <c r="N9" s="1">
         <v>8</v>
       </c>
@@ -1078,25 +1079,25 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="8">
+      <c r="A10" s="26">
         <v>6</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="8" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="8">
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="26">
         <v>10</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="27"/>
       <c r="N10" s="1">
         <v>8</v>
       </c>
@@ -1105,25 +1106,25 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="8">
+      <c r="A11" s="26">
         <v>8</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="8" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="8">
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="26">
         <v>5</v>
       </c>
-      <c r="M11" s="10"/>
+      <c r="M11" s="27"/>
       <c r="N11" s="1">
         <v>4</v>
       </c>
@@ -1132,29 +1133,29 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8">
+      <c r="A12" s="26">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="14">
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="34">
         <v>9</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="8">
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="26">
         <v>10</v>
       </c>
-      <c r="M12" s="10"/>
+      <c r="M12" s="27"/>
       <c r="N12" s="1">
         <v>4</v>
       </c>
@@ -1163,25 +1164,25 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8">
+      <c r="A13" s="26">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="8" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="8">
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="26">
         <v>6</v>
       </c>
-      <c r="M13" s="10"/>
+      <c r="M13" s="27"/>
       <c r="N13" s="1">
         <v>4</v>
       </c>
@@ -1190,25 +1191,25 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="8">
+      <c r="A14" s="26">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="8" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="8">
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="26">
         <v>10</v>
       </c>
-      <c r="M14" s="10"/>
+      <c r="M14" s="27"/>
       <c r="N14" s="1">
         <v>2</v>
       </c>
@@ -1217,29 +1218,29 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8">
+      <c r="A15" s="26">
         <v>36</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="14">
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="34">
         <v>8</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="8">
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="26">
         <v>10</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="27"/>
       <c r="N15" s="1">
         <v>6</v>
       </c>
@@ -1248,25 +1249,25 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="8">
+      <c r="A16" s="26">
         <v>37</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="8" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="8">
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="26">
         <v>10</v>
       </c>
-      <c r="M16" s="10"/>
+      <c r="M16" s="27"/>
       <c r="N16" s="1">
         <v>6</v>
       </c>
@@ -1275,25 +1276,25 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="8">
+      <c r="A17" s="26">
         <v>39</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="8" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="8">
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="26">
         <v>10</v>
       </c>
-      <c r="M17" s="10"/>
+      <c r="M17" s="27"/>
       <c r="N17" s="1">
         <v>6</v>
       </c>
@@ -1302,25 +1303,25 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="8">
+      <c r="A18" s="26">
         <v>40</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="8" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="8">
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="26">
         <v>7</v>
       </c>
-      <c r="M18" s="10"/>
+      <c r="M18" s="27"/>
       <c r="N18" s="1">
         <v>6</v>
       </c>
@@ -1329,29 +1330,29 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="8">
+      <c r="A19" s="26">
         <v>42</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="14">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="34">
         <v>3</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="8">
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="26">
         <v>4</v>
       </c>
-      <c r="M19" s="10"/>
+      <c r="M19" s="27"/>
       <c r="N19" s="1">
         <v>8</v>
       </c>
@@ -1360,25 +1361,25 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="8">
+      <c r="A20" s="26">
         <v>43</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="8" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="8">
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="26">
         <v>4</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="M20" s="27"/>
       <c r="N20" s="1">
         <v>2</v>
       </c>
@@ -1387,25 +1388,25 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="3">
         <v>9</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="5">
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="37">
         <v>9</v>
       </c>
-      <c r="M21" s="6"/>
+      <c r="M21" s="38"/>
       <c r="N21" s="4">
         <v>12</v>
       </c>
@@ -1418,25 +1419,48 @@
         <f>SUM(N5:N21)</f>
         <v>106</v>
       </c>
+      <c r="O22" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:F4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:K4"/>
-    <mergeCell ref="L1:M4"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:K17"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
@@ -1453,42 +1477,22 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:F4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:K4"/>
+    <mergeCell ref="L1:M4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
